--- a/消防/05_日报/509工作汇报.xlsx
+++ b/消防/05_日报/509工作汇报.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\物联网\每日汇报\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\物联网\githup\消防\05_日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="4185" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2017年05月09日测试情况汇报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>进度说明：
 1.业务测试方面：主要是进行了业务流程梳理，并且根据测试要点进行冒烟测试。计划本周五前完成功能的第一轮测试。
@@ -142,6 +138,10 @@
       </rPr>
       <t>4.由于测试环境无法访问，今天晚上缺陷，提的较少，后面进度会加快。</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05月09日测试情况汇报</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,7 +552,7 @@
   <dimension ref="B1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F11"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -564,7 +564,7 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
@@ -631,7 +631,7 @@
     </row>
     <row r="10" spans="2:6" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
